--- a/results/I3_N5_M3_T45_C150_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.0766027149043</v>
+        <v>27.36305227053332</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.77660271490709</v>
+        <v>19.36305227053332</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.4399999999974</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.8600000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.20165624259372</v>
+        <v>35.11125526828177</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>32.7338617375427</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33.77588400245558</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.79834375740628</v>
+        <v>37.72327375283629</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.83692585281499</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.61314143001297</v>
+        <v>37.23375379596089</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17500000000065</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.13000000000065</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.84000000000066</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.91000000000065</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.84999999999999</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000008</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000008</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000008</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000008</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.48</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>156.56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>161.4099999999993</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>155.9399999999993</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>145.3950000000004</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.4750000000004</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>167.3200000000004</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>168.77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>166.2650000000004</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.25</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.4099999999993</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.73</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.9399999999993</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>122.0650000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>116.7150000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>125.2100000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>122.6300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>145.3950000000004</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>163.4750000000004</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>167.3200000000004</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>168.77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>166.2650000000004</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.560000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.40999999999934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.72999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.939999999999344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>18.77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>16.265</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,100 +2055,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
